--- a/tests/TestData/TestAllData.xlsx
+++ b/tests/TestData/TestAllData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Playwright_Training_NewVersion\tests\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training_Scripts\Playwright_Training_NewVersion\tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2649CFF-874D-4B82-AF2B-86E5FD847C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5CBC19-A3E7-4A5B-8267-818C2883A8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,23 +395,23 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -421,10 +419,10 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -432,10 +430,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -443,10 +441,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -454,10 +452,10 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -465,10 +463,10 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
